--- a/PageObjectModel/src/test/resources/TestCases/MortgagrCalculator_SmokeTestCase.xlsx
+++ b/PageObjectModel/src/test/resources/TestCases/MortgagrCalculator_SmokeTestCase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThinkPad_T540p\Desktop\TestCase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThinkPad_T540p\git\Testing\PageObjectModel\src\test\resources\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FD8699-B6EF-40BC-B66A-CBB31ECA3AD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0AD718-8243-464C-BBC5-5778563DE202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample Test Case" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t xml:space="preserve">Project Name: </t>
   </si>
@@ -116,12 +116,6 @@
   <si>
     <t xml:space="preserve">Manually insert Test data in test class.
 1. Mortgage Amount                  2. Mortgage Period Year       3. Mortgage Period Month                           4. Interest Year                    5. Interest Month                  6. Interest Type                     7. Interest Rate                    8. Start Month                      9. Start Year                       10. Payment Period </t>
-  </si>
-  <si>
-    <t>23 - 03 - 2021</t>
-  </si>
-  <si>
-    <t>24 - 03 - 2021</t>
   </si>
   <si>
     <t>Mike</t>
@@ -813,7 +807,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -826,6 +820,33 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="18" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="16" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -854,6 +875,9 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="10" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -863,34 +887,7 @@
     <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="10" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1276,7 +1273,7 @@
   <dimension ref="A1:I748"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C15" sqref="C15:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1295,79 +1292,79 @@
   <sheetData>
     <row r="1" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="18" t="s">
-        <v>33</v>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28" t="s">
+        <v>31</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="18" t="s">
-        <v>34</v>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28" t="s">
+        <v>32</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="20" t="s">
-        <v>32</v>
+      <c r="B4" s="27"/>
+      <c r="C4" s="30" t="s">
+        <v>30</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="14"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="20" t="s">
-        <v>30</v>
+      <c r="B5" s="27"/>
+      <c r="C5" s="31">
+        <v>44385</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="23"/>
     </row>
     <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="20" t="s">
-        <v>31</v>
+      <c r="B6" s="27"/>
+      <c r="C6" s="31">
+        <v>44385</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="17"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26"/>
     </row>
     <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
@@ -1399,199 +1396,199 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21" t="s">
+      <c r="H9" s="12"/>
+      <c r="I9" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="21" t="s">
+      <c r="E15" s="10"/>
+      <c r="F15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21" t="s">
+      <c r="H15" s="12"/>
+      <c r="I15" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
@@ -9592,21 +9589,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E9:E21"/>
-    <mergeCell ref="F15:F21"/>
-    <mergeCell ref="G15:G21"/>
-    <mergeCell ref="H15:H21"/>
-    <mergeCell ref="I15:I21"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="C15:C21"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="F9:F14"/>
-    <mergeCell ref="G9:G14"/>
-    <mergeCell ref="H9:H14"/>
-    <mergeCell ref="I9:I14"/>
     <mergeCell ref="F2:I6"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A4:B4"/>
@@ -9618,6 +9600,21 @@
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="E9:E21"/>
+    <mergeCell ref="F15:F21"/>
+    <mergeCell ref="G15:G21"/>
+    <mergeCell ref="H15:H21"/>
+    <mergeCell ref="I15:I21"/>
+    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="H9:H14"/>
+    <mergeCell ref="I9:I14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
